--- a/bazy/parafie/gross kotten.xlsx
+++ b/bazy/parafie/gross kotten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.krantz\Desktop\drzewo\parafie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{356A2CAB-71CE-4E52-A3C6-671661F6D5FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDA010-2BC3-4786-88AC-1238C4A6CBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="6960" windowWidth="24420" windowHeight="6900" tabRatio="371" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="371" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nachnamen" sheetId="11" r:id="rId1"/>
@@ -6814,10 +6814,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="[$-407]d/\ mmm/\ yy;@"/>
-    <numFmt numFmtId="184" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-407]d/\ mmm/\ yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -7162,10 +7162,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -7299,7 +7299,7 @@
     <xf numFmtId="16" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7310,8 +7310,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7327,9 +7327,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7367,7 +7367,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7473,7 +7473,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7622,14 +7622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K295"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="2.42578125" customWidth="1"/>
@@ -10279,7 +10279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="57"/>
   </sheetPr>
@@ -10290,7 +10290,7 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="1.42578125" customWidth="1"/>
@@ -14307,7 +14307,7 @@
       <c r="K174" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C4:K135"/>
+  <autoFilter ref="C4:K135" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:K1"/>
   </mergeCells>
@@ -14319,15 +14319,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:V795"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" colorId="53" zoomScale="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G771" sqref="G771"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="1.42578125" customWidth="1"/>
@@ -44413,7 +44413,7 @@
       <c r="V795" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="C4:O794"/>
+  <autoFilter ref="C4:O794" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:O1"/>
   </mergeCells>
